--- a/biology/Zoologie/Drongo_cendré/Drongo_cendré.xlsx
+++ b/biology/Zoologie/Drongo_cendré/Drongo_cendré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drongo_cendr%C3%A9</t>
+          <t>Drongo_cendré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus leucophaeus
 Le Drongo cendré (Dicrurus leucophaeus) est une espèce de passereau de la famille des Dicruridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drongo_cendr%C3%A9</t>
+          <t>Drongo_cendré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a un plumage d'un gris cendré. Suivant les sous-espèces, il a un cercle blanc ou non autour des yeux. Il a les pattes courtes et se tient très droit tandis qu'il est perché bien en vue, comme une pie-grièche, au sommet d'un arbre.
 Il a un cri du type drangh gip ou gip-gip-drangh. il peut imiter le chant d'autres oiseaux et notamment le petit Iora.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drongo_cendr%C3%A9</t>
+          <t>Drongo_cendré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est insectivore et se nourrit en vol ou sur les arbres.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drongo_cendr%C3%A9</t>
+          <t>Drongo_cendré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond trois à quatre œufs dans un nid en coupe à la fourchette haute d'un arbre.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drongo_cendr%C3%A9</t>
+          <t>Drongo_cendré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau réside dans les régions tropicales du sud de l'Asie, de l'est de l'Afghanistan au sud de la Chine et en Indonésie.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Drongo_cendr%C3%A9</t>
+          <t>Drongo_cendré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les individus les plus nordiques sont migrateurs et migrent en bandes vers le sud.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Drongo_cendr%C3%A9</t>
+          <t>Drongo_cendré</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Selon Peterson, cet oiseau est représenté par 15 sous-espèces :
 Dicrurus leucophaeus batakensis (Robinson &amp; Kloss) 1919 ;
